--- a/data/pearl.xlsx
+++ b/data/pearl.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9210" yWindow="360" windowWidth="22200" windowHeight="20010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="300" yWindow="2328" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,22 +24,24 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill>
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,36 +406,36 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="7.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19.5546875" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="11" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18.140625" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="30.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="7.85546875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="30.44140625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="12.5546875" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="12.44140625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="21.6640625" bestFit="1" customWidth="1" min="18" max="18"/>
     <col width="7" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="10.42578125" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="30.7109375" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="30.6640625" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2142,215 +2146,215 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" customFormat="1" s="1">
+      <c r="A17" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>ВетТрейд</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>Мурманская станция</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Мурманская обл</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>6802420244</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>С</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="1" t="inlineStr">
         <is>
           <t>Мурманск, Грибалевой 8</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>Pet</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="1" t="inlineStr">
         <is>
           <t>СББЖ</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>Kucc</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>Vasotop P 0.625mg 3x28tab</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="1" t="n">
         <v>153699</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="1" t="inlineStr">
         <is>
           <t>Vasotop</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="1" t="inlineStr">
         <is>
           <t>Pharma</t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="1" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" customFormat="1" s="1">
+      <c r="A18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="1" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="1" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="1" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="1" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="1" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>Kucc</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="1" t="n">
         <v>153698</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="1" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="1" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="1" t="n">
         <v>375</v>
       </c>
     </row>
@@ -2566,109 +2570,109 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" customFormat="1" s="2">
+      <c r="A21" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="2" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Ivanov</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>153698</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>375</v>
       </c>
     </row>
@@ -2778,109 +2782,109 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" customFormat="1" s="2">
+      <c r="A23" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="2" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="2" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Ivanov</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="2" t="n">
         <v>153698</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="2" t="n">
         <v>375</v>
       </c>
     </row>
